--- a/biology/Zoologie/Eryx_tataricus/Eryx_tataricus.xlsx
+++ b/biology/Zoologie/Eryx_tataricus/Eryx_tataricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryx tataricus est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryx tataricus est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Mongolie ;
 en Chine au Xinjiang, au Gansu, au Ningxia et en Mongolie-Intérieure ;
 au Kazakhstan ;
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents mesurent jusqu'à 75 cm pour les mâles et jusqu'à 120 cm pour les femelles qui sont plus grosses.
 </t>
@@ -583,9 +599,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Eryx tataricus tataricus (Lichtenstein, 1823)
 Eryx tataricus speciosus Zarevskij, 1915
 Eryx tataricus vittatus Chernov, 1959</t>
@@ -616,7 +634,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chernov, 1959 : Reptilia. Fauna Tadzhikskoď SSR, vol. 18, p. 1-204.
 Lichtenstein, 1823 : Verzeichniss der Doubletten des Zoologischen Museums der Königlichen Friedrich-Wilhelm-Universität zu Berlin nebst Beschreibung vieler bisher unbekannter Arten von Säugethieren, Vögeln, Amphibien und Fischen. Königlich Preussische Akademie der Wissenschaften, Berlin, p. 1-118 (texte intégral).
